--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\excelToAvd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50874B80-C3AE-49E4-9CD0-60B907C09A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF4AE0C-7FD8-4231-B319-09BD59C7C8FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="2" xr2:uid="{71463653-0BCE-624A-9151-A855014D3D36}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="5" xr2:uid="{71463653-0BCE-624A-9151-A855014D3D36}"/>
   </bookViews>
   <sheets>
     <sheet name="General Configuration Details" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="229">
   <si>
     <t>Container Name</t>
   </si>
@@ -135,27 +135,12 @@
     <t>BGP BFD Multihop Min Rx</t>
   </si>
   <si>
-    <t>Point to point network summary, assigned as /31 for each uplink interfaces.  Assign a range larger then total [spines * total potential leafs * 2]</t>
-  </si>
-  <si>
-    <t>IP address range for evpn loopback for all switches in fabric, assigned as /32s.  Assign a range larger than total [spines + total leafs]</t>
-  </si>
-  <si>
-    <t>VTEP Vxlan Tuneel source loopback IP for leaf switches, assigned in /32s.  Assign a range larger than total leaf switches.</t>
-  </si>
-  <si>
     <t>Enable/Disable vlan aware bundles; TRUE or FALSE</t>
   </si>
   <si>
     <t>MLAG IGP Peer Network Summary</t>
   </si>
   <si>
-    <t>IP Address range used for the IGP peerings between MLAG leaf pairs.  Assign a range larger than total spines + total leafs</t>
-  </si>
-  <si>
-    <t>IP Address range used for the MLAG peerings between MLAG leaf pairs.  Assign a range larger than total spines + total leafs</t>
-  </si>
-  <si>
     <t>DC1-SPINE1</t>
   </si>
   <si>
@@ -207,9 +192,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>00:dc:00:00:00:0a</t>
-  </si>
-  <si>
     <t>BGP AS</t>
   </si>
   <si>
@@ -240,9 +222,6 @@
     <t>8.8.8.8</t>
   </si>
   <si>
-    <t>1.1.1.1</t>
-  </si>
-  <si>
     <t>Management Gateway</t>
   </si>
   <si>
@@ -291,18 +270,12 @@
     <t>DC1-L2LEAF1A</t>
   </si>
   <si>
-    <t>DC1-LEAF2A, DC1-LEAF2B</t>
-  </si>
-  <si>
     <t>Tenant_A</t>
   </si>
   <si>
     <t>opzone, web, app</t>
   </si>
   <si>
-    <t>DC1-SVC3A, DC1-SVC3B</t>
-  </si>
-  <si>
     <t>Tenant</t>
   </si>
   <si>
@@ -333,90 +306,12 @@
     <t>Tenant_A_OP_Zone_2</t>
   </si>
   <si>
-    <t>wan</t>
-  </si>
-  <si>
-    <t>Tenant_B_OP_Zone_1</t>
-  </si>
-  <si>
-    <t>Tenant_B_OP_Zone_2</t>
-  </si>
-  <si>
-    <t>Tenant_B_WAN_Zone_1</t>
-  </si>
-  <si>
-    <t>Tenant_C_OP_Zone_1</t>
-  </si>
-  <si>
-    <t>web</t>
-  </si>
-  <si>
-    <t>web, erp1</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>app, erp1</t>
-  </si>
-  <si>
-    <t>Tenant_A_APP_Zone_2</t>
-  </si>
-  <si>
-    <t>Tenant_A_WEB_Zone_2</t>
-  </si>
-  <si>
-    <t>Tenant_B_WAN_Zone</t>
-  </si>
-  <si>
-    <t>Tenant_A_DB_Zone</t>
-  </si>
-  <si>
-    <t>Tenant_A_DB_Zone_1</t>
-  </si>
-  <si>
-    <t>Tenant_A_APP_Zone_1</t>
-  </si>
-  <si>
-    <t>db</t>
-  </si>
-  <si>
-    <t>Tenant_A_DB_Zone_2</t>
-  </si>
-  <si>
     <t>opzone, web, app, db</t>
   </si>
   <si>
-    <t>Tenant_B</t>
-  </si>
-  <si>
-    <t>Tenant_C</t>
-  </si>
-  <si>
     <t>Tenant_A_OP_Zone</t>
   </si>
   <si>
-    <t>Tenant_A_WEB_Zone</t>
-  </si>
-  <si>
-    <t>Tenant_A_APP_Zone</t>
-  </si>
-  <si>
-    <t>Tenant_A_WAN_Zone</t>
-  </si>
-  <si>
-    <t>Tenant_B_OP_Zone</t>
-  </si>
-  <si>
-    <t>Tenant_C_OP_Zone</t>
-  </si>
-  <si>
-    <t>Tenant_A_WEB_Zone_1</t>
-  </si>
-  <si>
-    <t>Tenant_A_WAN_Zone_1</t>
-  </si>
-  <si>
     <t>Port Profile</t>
   </si>
   <si>
@@ -468,63 +363,12 @@
     <t>server01</t>
   </si>
   <si>
-    <t>RackB</t>
-  </si>
-  <si>
-    <t>Eth1</t>
-  </si>
-  <si>
     <t>Ethernet5</t>
   </si>
   <si>
-    <t>Eth4, Eth5</t>
-  </si>
-  <si>
-    <t>Ethernet7, Ethernet8</t>
-  </si>
-  <si>
-    <t>DC1-LEAF1A, DC1-LEAF1A</t>
-  </si>
-  <si>
-    <t>PortChannel1</t>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>Eth2, Eth3</t>
-  </si>
-  <si>
-    <t>Ethernet10, Ethernet10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DC1-LEAF2A, DC1-LEAF2B </t>
-  </si>
-  <si>
     <t>server02</t>
   </si>
   <si>
-    <t>Ethernet6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eth2, Eth3 </t>
-  </si>
-  <si>
-    <t>Ethernet11, Ethernet11</t>
-  </si>
-  <si>
-    <t>server03</t>
-  </si>
-  <si>
-    <t>RackC</t>
-  </si>
-  <si>
-    <t>Eth1, Eth2</t>
-  </si>
-  <si>
-    <t>server04</t>
-  </si>
-  <si>
     <t>trunk</t>
   </si>
   <si>
@@ -558,42 +402,6 @@
     <t>10.1.10.0/24</t>
   </si>
   <si>
-    <t>10.1.20.0/24</t>
-  </si>
-  <si>
-    <t>10.1.21.0/24</t>
-  </si>
-  <si>
-    <t>10.1.30.0/24</t>
-  </si>
-  <si>
-    <t>10.1.31.0/24</t>
-  </si>
-  <si>
-    <t>10.1.40.0/24</t>
-  </si>
-  <si>
-    <t>10.1.41.0/24</t>
-  </si>
-  <si>
-    <t>10.1.50.0/24</t>
-  </si>
-  <si>
-    <t>10.2.10.0/24</t>
-  </si>
-  <si>
-    <t>10.2.11.0/24</t>
-  </si>
-  <si>
-    <t>10.2.50.0/24</t>
-  </si>
-  <si>
-    <t>10.3.10.0/24</t>
-  </si>
-  <si>
-    <t>IP Virtual Router Address</t>
-  </si>
-  <si>
     <t>avd</t>
   </si>
   <si>
@@ -607,9 +415,6 @@
   </si>
   <si>
     <t>DNS Servers separated by a comma</t>
-  </si>
-  <si>
-    <t>NTP Servers separated by a comma</t>
   </si>
   <si>
     <t>192.168.22.193/24</t>
@@ -862,10 +667,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DC1-L2LEAF1B</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>192.168.22.197/24</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -908,6 +709,125 @@
   <si>
     <t>BGP wait-install</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Point to point network summary, assigned as /31 for each uplink interfaces.  Assign a range larger then total [spines * total potential leafs * 2]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP address range for evpn loopback for all switches in fabric, assigned as /32s.  Assign a range larger than total [spines + total leafs]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>VTEP Vxlan Tuneel source loopback IP for leaf switches, assigned in /32s.  Assign a range larger than total leaf switches.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP Address range used for the IGP peerings between MLAG leaf pairs.  Assign a range larger than total spines + total leafs</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP Address range used for the MLAG peerings between MLAG leaf pairs.  Assign a range larger than total spines + total leafs</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>AQQvKeimxJu+uGQ/yYvv9w==</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>q+VNViP5i4rVjW1cxFv2wA==</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>vnEaG8gMeQf3d3cN6PktXQ==</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>FALSE</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tenant_A_OP_Zone_3</t>
+  </si>
+  <si>
+    <t>opzone</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC1_L2LEAF2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC1-L2LEAF2A</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1.12.0/24</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>RackA</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Port Profile</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eth0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC1-L2LEAF1A</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>access</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nic</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>NTP Servers Prefer</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>NTP Servers separated by a comma</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>NTP Servers Prefer separated by a comma</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.fr.pool.ntp.org,1.fr.pool.ntp.org</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRUE,FALSE</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC1_LEAF3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC1-LEAF3B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.22.200/24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>65102</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -917,7 +837,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1035,6 +955,13 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="D2Coding"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1056,7 +983,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1086,6 +1013,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1400,18 +1330,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293C1073-CE6E-FC49-B936-0C633F8452D0}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8:A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66" customWidth="1"/>
+    <col min="3" max="3" width="133" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1427,217 +1357,225 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>257</v>
+        <v>191</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>215</v>
+        <v>150</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>184</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>258</v>
+        <v>192</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>186</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>259</v>
+        <v>193</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>185</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>260</v>
+        <v>194</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>161</v>
+        <v>109</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>162</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>202</v>
+        <v>137</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>203</v>
+        <v>138</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>204</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>201</v>
+        <v>136</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>199</v>
+        <v>134</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>200</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>207</v>
+        <v>142</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>187</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>65</v>
+        <v>223</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="48" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="32.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="B12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="32.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>10</v>
-      </c>
       <c r="B13" s="9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>32</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="32.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
-        <v>34</v>
-      </c>
       <c r="B15" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="32.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>22</v>
-      </c>
       <c r="C16" s="13" t="s">
-        <v>36</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="10" t="s">
-        <v>70</v>
+        <v>20</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="9"/>
+        <v>23</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>204</v>
+      </c>
       <c r="C18" s="10" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>205</v>
+      </c>
       <c r="C19" s="10" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="9">
-        <v>1500</v>
-      </c>
-      <c r="C20" s="10"/>
+        <v>25</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="9">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="C21" s="10"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B22" s="9">
         <v>1200</v>
@@ -1646,53 +1584,60 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B23" s="9">
-        <v>3</v>
+        <v>1200</v>
       </c>
       <c r="C23" s="10"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>206</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B24" s="9">
+        <v>3</v>
+      </c>
+      <c r="C24" s="10"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>197</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="B25" s="10"/>
       <c r="C25" s="10" t="s">
-        <v>198</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>74</v>
+        <v>131</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>71</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B27" s="9"/>
+        <v>55</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>67</v>
+      </c>
       <c r="C27" s="10" t="s">
-        <v>69</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="10" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1704,11 +1649,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08ACCC69-7B6B-8B45-B58C-2055E380561D}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1721,229 +1666,115 @@
     <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="B1" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="D1" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="E1" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="F1" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="G1" t="s">
-        <v>124</v>
+        <v>214</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+      <c r="J1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>141</v>
+        <v>105</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>213</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>142</v>
+        <v>215</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>46</v>
+        <v>216</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>141</v>
+        <v>107</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>213</v>
       </c>
       <c r="C3" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>144</v>
+        <v>215</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>146</v>
+        <v>211</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C4" s="4">
-        <v>3</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>136</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C6" s="4">
-        <v>2</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>148</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -1957,7 +1788,7 @@
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1994,10 +1825,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>193</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -2005,10 +1836,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>194</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2031,9 +1862,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C96795F-5E7A-7441-BC00-4FCBCA6B0B1E}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2053,15 +1884,15 @@
     </row>
     <row r="2" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>248</v>
+        <v>183</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>216</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>261</v>
+        <v>195</v>
       </c>
       <c r="B3" s="9">
         <v>65100</v>
@@ -2069,31 +1900,31 @@
     </row>
     <row r="4" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>262</v>
+        <v>196</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>263</v>
+        <v>197</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>264</v>
+        <v>198</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>225</v>
+        <v>160</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>7</v>
@@ -2101,34 +1932,34 @@
     </row>
     <row r="8" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>227</v>
+        <v>162</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>211</v>
+        <v>146</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>208</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>212</v>
+        <v>147</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>209</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>213</v>
+        <v>148</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>210</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2144,7 +1975,7 @@
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2183,13 +2014,13 @@
         <v>3</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>232</v>
+        <v>167</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>15</v>
@@ -2217,34 +2048,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>189</v>
+        <v>124</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>251</v>
+        <v>186</v>
       </c>
       <c r="G2" s="9">
         <v>65101</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>233</v>
+        <v>168</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -2252,34 +2083,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>249</v>
+        <v>184</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>250</v>
+        <v>185</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>190</v>
+        <v>125</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>251</v>
+        <v>186</v>
       </c>
       <c r="G3" s="9">
         <v>65101</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>234</v>
+        <v>169</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -2287,34 +2118,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>191</v>
+        <v>126</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>251</v>
+        <v>186</v>
       </c>
       <c r="G4" s="9">
         <v>65102</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>235</v>
+        <v>170</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -2322,48 +2153,70 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>48</v>
-      </c>
       <c r="E5" s="9" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>251</v>
+        <v>186</v>
       </c>
       <c r="G5" s="9">
         <v>65102</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>252</v>
+        <v>187</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
@@ -2390,7 +2243,7 @@
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -2412,20 +2265,20 @@
         <v>14</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>211</v>
+        <v>146</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>208</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>217</v>
+        <v>152</v>
       </c>
       <c r="B4" s="23">
         <v>2</v>
@@ -2433,34 +2286,34 @@
     </row>
     <row r="5" spans="1:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>218</v>
+        <v>153</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>223</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>219</v>
+        <v>154</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>220</v>
+        <v>155</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>224</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>230</v>
+        <v>165</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>231</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2468,36 +2321,36 @@
         <v>3</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>214</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>221</v>
+        <v>156</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>209</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>222</v>
+        <v>157</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>210</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>54</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>18</v>
@@ -2505,7 +2358,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>229</v>
+        <v>164</v>
       </c>
       <c r="B14" s="9">
         <v>16384</v>
@@ -2516,12 +2369,12 @@
         <v>6</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>225</v>
+        <v>160</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>7</v>
@@ -2529,15 +2382,15 @@
     </row>
     <row r="17" spans="1:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="B17" s="9" t="b">
-        <v>0</v>
+        <v>162</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>226</v>
+        <v>161</v>
       </c>
       <c r="B18" s="19">
         <v>300</v>
@@ -2545,7 +2398,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>228</v>
+        <v>163</v>
       </c>
       <c r="B19" s="19" t="b">
         <v>1</v>
@@ -2562,9 +2415,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41311A7A-7CCF-024D-AE59-C5F21012B3DE}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2603,13 +2456,13 @@
         <v>3</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>236</v>
+        <v>171</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>238</v>
+        <v>173</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>237</v>
+        <v>172</v>
       </c>
       <c r="J1" s="14" t="s">
         <v>15</v>
@@ -2620,66 +2473,66 @@
     </row>
     <row r="2" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>254</v>
+        <v>188</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>244</v>
+        <v>179</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>256</v>
+        <v>190</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>253</v>
+        <v>211</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>255</v>
+        <v>189</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>256</v>
+        <v>190</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2695,7 +2548,7 @@
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A11"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -2714,37 +2567,37 @@
     </row>
     <row r="2" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>248</v>
+        <v>183</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
-        <v>236</v>
+        <v>171</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>244</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
-        <v>238</v>
+        <v>173</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>239</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
-        <v>241</v>
+        <v>176</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>242</v>
+        <v>177</v>
       </c>
       <c r="C5" t="s">
-        <v>243</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2752,36 +2605,36 @@
         <v>3</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>214</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
-        <v>245</v>
+        <v>180</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>209</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
-        <v>246</v>
+        <v>181</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>210</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
-        <v>247</v>
+        <v>182</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>240</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>18</v>
@@ -2789,7 +2642,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B11" s="16">
         <v>16384</v>
@@ -2804,11 +2657,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85D48BE-CB72-BC43-A02D-945523B5A1A7}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2831,60 +2684,60 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>163</v>
+        <v>111</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>164</v>
+        <v>112</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>168</v>
+        <v>116</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c r="K1" s="19" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="L1" s="19" t="s">
         <v>16</v>
       </c>
       <c r="M1" s="19" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B2" s="10">
         <v>10000</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="D2" s="10">
         <v>100</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>165</v>
+        <v>113</v>
       </c>
       <c r="F2" s="10">
         <v>10</v>
@@ -2894,16 +2747,16 @@
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="M2" s="10" t="b">
         <v>1</v>
@@ -2911,16 +2764,20 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B3" s="10">
         <v>10000</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+        <v>88</v>
+      </c>
+      <c r="D3" s="10">
+        <v>100</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>113</v>
+      </c>
       <c r="F3" s="10">
         <v>10</v>
       </c>
@@ -2931,16 +2788,16 @@
         <v>50111</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>182</v>
+        <v>114</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>169</v>
+        <v>117</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>93</v>
+        <v>209</v>
       </c>
       <c r="M3" s="10" t="b">
         <v>1</v>
@@ -2948,392 +2805,49 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B4" s="10">
         <v>10000</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
+        <v>88</v>
+      </c>
+      <c r="D4" s="10">
+        <v>100</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>113</v>
+      </c>
       <c r="F4" s="10">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" s="10">
-        <v>120</v>
-      </c>
-      <c r="H4" s="10"/>
+        <v>112</v>
+      </c>
+      <c r="H4" s="10">
+        <v>50112</v>
+      </c>
       <c r="I4" s="10" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>171</v>
+        <v>212</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>122</v>
+        <v>208</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>102</v>
+        <v>209</v>
       </c>
       <c r="M4" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" s="10">
-        <v>10000</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10">
-        <v>11</v>
-      </c>
-      <c r="G5" s="10">
-        <v>121</v>
-      </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="M5" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="10">
-        <v>10000</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10">
-        <v>12</v>
-      </c>
-      <c r="G6" s="10">
-        <v>130</v>
-      </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="M6" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" s="10">
-        <v>10000</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10">
-        <v>12</v>
-      </c>
-      <c r="G7" s="10">
-        <v>131</v>
-      </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="M7" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" s="10">
-        <v>10000</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10">
-        <v>13</v>
-      </c>
-      <c r="G8" s="10">
-        <v>140</v>
-      </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="M8" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="10">
-        <v>10000</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10">
-        <v>13</v>
-      </c>
-      <c r="G9" s="10">
-        <v>141</v>
-      </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="M9" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" s="10">
-        <v>10000</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10">
-        <v>14</v>
-      </c>
-      <c r="G10" s="10">
-        <v>150</v>
-      </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="M10" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="B11" s="10">
-        <v>20000</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10">
-        <v>20</v>
-      </c>
-      <c r="G11" s="10">
-        <v>210</v>
-      </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="M11" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="B12" s="10">
-        <v>20000</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10">
-        <v>20</v>
-      </c>
-      <c r="G12" s="10">
-        <v>211</v>
-      </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="M12" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="B13" s="10">
-        <v>20000</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10">
-        <v>21</v>
-      </c>
-      <c r="G13" s="10">
-        <v>250</v>
-      </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="L13" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="M13" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B14" s="10">
-        <v>30000</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10">
-        <v>30</v>
-      </c>
-      <c r="G14" s="10">
-        <v>310</v>
-      </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="M14" s="10" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3343,43 +2857,45 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.33203125" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="11.5546875" style="19"/>
+    <col min="2" max="2" width="11.5546875" style="19"/>
+    <col min="3" max="3" width="15.109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.5546875" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>160</v>
+        <v>108</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>160</v>
+        <v>217</v>
       </c>
       <c r="C3" s="10">
         <v>110</v>
@@ -3387,13 +2903,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>160</v>
+        <v>108</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\excelToAvd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0684D8DE-21A3-4072-B8B9-591FB3B6036C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F239CC-3309-4ADF-A666-E51A7040D4D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="30900" yWindow="852" windowWidth="12888" windowHeight="13800" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30900" yWindow="756" windowWidth="12888" windowHeight="13800" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Configuration Details" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="232">
   <si>
     <t>Setting</t>
   </si>
@@ -283,9 +283,6 @@
     <t>BGP distance setting</t>
   </si>
   <si>
-    <t>distance bgp 20 200 200</t>
-  </si>
-  <si>
     <t>BGP default ipv4-unicast</t>
   </si>
   <si>
@@ -385,374 +382,421 @@
     <t>Spanning-tree Priority</t>
   </si>
   <si>
+    <t>BGP Graceful Restart</t>
+  </si>
+  <si>
+    <t>DC1-LEAF1A, DC1-LEAF1B</t>
+  </si>
+  <si>
+    <t>MLAG</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>true, false</t>
+  </si>
+  <si>
+    <t>Virtual Router Mac Address</t>
+  </si>
+  <si>
+    <t>Tenant</t>
+  </si>
+  <si>
+    <t>Mac Vrf VNI Base</t>
+  </si>
+  <si>
+    <t>Vrf</t>
+  </si>
+  <si>
+    <t>VTEP Loopback</t>
+  </si>
+  <si>
+    <t>VTEP Loopback Address Range</t>
+  </si>
+  <si>
+    <t>Vrf VNI</t>
+  </si>
+  <si>
+    <t>SVI</t>
+  </si>
+  <si>
+    <t>Vlan VNI Override</t>
+  </si>
+  <si>
+    <t>Virtual Address Type</t>
+  </si>
+  <si>
+    <t>Virtual IP Subnet</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Enabled</t>
+  </si>
+  <si>
+    <t>Port Profile</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Vlans</t>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>Rack</t>
+  </si>
+  <si>
+    <t>Adapter</t>
+  </si>
+  <si>
+    <t>Server Ports</t>
+  </si>
+  <si>
+    <t>Switch Ports</t>
+  </si>
+  <si>
+    <t>Switches</t>
+  </si>
+  <si>
+    <t>Port-Channel</t>
+  </si>
+  <si>
+    <t>Port-Channel Mode</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>RackA</t>
+  </si>
+  <si>
+    <t>nic</t>
+  </si>
+  <si>
+    <t>192.168.22.193/24</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.22.194/24</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.22.195/24</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.22.196/24</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.1.200/30</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.1.0/24</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>hash of password;  Leave blank if none; Spine</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>hash of password;  Leave blank if none; Leaf</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.21.1.0/24</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.22.1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leaf-01</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leaf-02</t>
+  </si>
+  <si>
+    <t>Leaf-03</t>
+  </si>
+  <si>
+    <t>Leaf-04</t>
+  </si>
+  <si>
+    <t>192.168.22.197/24</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.22.198/24</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC1_LEAF3</t>
+  </si>
+  <si>
+    <t>DC1_LEAF4</t>
+  </si>
+  <si>
+    <t>vEOS</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BL-01</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BL-02</t>
+  </si>
+  <si>
+    <t>Ethernet5, Ethernet5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethernet6, Ethernet6</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethernet1, Ethernet2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethernet7, Ethernet8</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spine-01</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spine-02</t>
+  </si>
+  <si>
+    <t>Spine-01, Spine-02</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethernet3, Ethernet3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mode</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethernet3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eth1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>trunk</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOST-A</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOST-B</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOST-C</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shared</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC1_BL</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLAG Peer ip</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.0.0/32</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLAG Port Channel ID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Terminal Length</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Terminal Width</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>$6$sbSVn6IgN2A7VIJJ$8g/z9ibMbFlO06jbpowU/PyB9kJvIgPNeSVyXjjanW8eftykpP7S32CFEdmb0nj0D8JXOKUNWe97T2wNvWSbm1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin hash 값/미입력시 패스워드 사용하지 않음</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Banner Log</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>***********************************************************************\nGlobalTelecom and Arista Networks\n***********************************************************************\nEOF</t>
+  </si>
+  <si>
+    <t>Time Zone</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asia/Seoul</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP Route</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRUE</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spanning-tree Mode</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGP maximum-paths</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGP IPv4 Underlay Peer Group Password</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGP IPv4 Underlay Peer Group Name</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGP EVPN Overlay Peer Group Name</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNDERLAY</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>OVERLAY</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGP IPv4 Underlay Prefix</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>100.64.0.0/10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGP IPv4 Underlay Peer Filter</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leaf-Ass</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peer Filter Name</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peer Filter Sequence Numbers</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peer Filter Match</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>as-range 65001-65200 result accept</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.31.255.0/24</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loopback</t>
+  </si>
+  <si>
+    <t>permit 1.1.1.0/24 eq 32</t>
+  </si>
+  <si>
+    <t>Prefix Name</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefix Sequence Numbers</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefix Action</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Route Map Name</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loopback</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Route Map Type</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>permit</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Route Map Sequence</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Route Map Match</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip address prefix-list Loopback</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGP default ipv4-unicast</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGP ecmp</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>BGP Graceful Restart Time</t>
-  </si>
-  <si>
-    <t>BGP Graceful Restart</t>
-  </si>
-  <si>
-    <t>DC1-LEAF1A, DC1-LEAF1B</t>
-  </si>
-  <si>
-    <t>MLAG</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>true, false</t>
-  </si>
-  <si>
-    <t>Virtual Router Mac Address</t>
-  </si>
-  <si>
-    <t>Tenant</t>
-  </si>
-  <si>
-    <t>Mac Vrf VNI Base</t>
-  </si>
-  <si>
-    <t>Vrf</t>
-  </si>
-  <si>
-    <t>VTEP Loopback</t>
-  </si>
-  <si>
-    <t>VTEP Loopback Address Range</t>
-  </si>
-  <si>
-    <t>Vrf VNI</t>
-  </si>
-  <si>
-    <t>SVI</t>
-  </si>
-  <si>
-    <t>Vlan VNI Override</t>
-  </si>
-  <si>
-    <t>Virtual Address Type</t>
-  </si>
-  <si>
-    <t>Virtual IP Subnet</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Enabled</t>
-  </si>
-  <si>
-    <t>Port Profile</t>
-  </si>
-  <si>
-    <t>Mode</t>
-  </si>
-  <si>
-    <t>Vlans</t>
-  </si>
-  <si>
-    <t>Server</t>
-  </si>
-  <si>
-    <t>Rack</t>
-  </si>
-  <si>
-    <t>Adapter</t>
-  </si>
-  <si>
-    <t>Server Ports</t>
-  </si>
-  <si>
-    <t>Switch Ports</t>
-  </si>
-  <si>
-    <t>Switches</t>
-  </si>
-  <si>
-    <t>Port-Channel</t>
-  </si>
-  <si>
-    <t>Port-Channel Mode</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>RackA</t>
-  </si>
-  <si>
-    <t>nic</t>
-  </si>
-  <si>
-    <t>192.168.22.193/24</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.22.194/24</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.22.195/24</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.22.196/24</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.1.200/30</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.1.0/24</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>hash of password;  Leave blank if none; Spine</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>hash of password;  Leave blank if none; Leaf</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>172.21.1.0/24</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.22.1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leaf-01</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leaf-02</t>
-  </si>
-  <si>
-    <t>Leaf-03</t>
-  </si>
-  <si>
-    <t>Leaf-04</t>
-  </si>
-  <si>
-    <t>192.168.22.197/24</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.22.198/24</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>DC1_LEAF3</t>
-  </si>
-  <si>
-    <t>DC1_LEAF4</t>
-  </si>
-  <si>
-    <t>vEOS</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>BL-01</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>BL-02</t>
-  </si>
-  <si>
-    <t>Ethernet5, Ethernet5</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ethernet6, Ethernet6</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ethernet1, Ethernet2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ethernet7, Ethernet8</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spine-01</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spine-02</t>
-  </si>
-  <si>
-    <t>Spine-01, Spine-02</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ethernet3, Ethernet3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mode</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ethernet3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eth1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>trunk</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>HOST-A</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>HOST-B</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>HOST-C</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shared</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>DC1_BL</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>MLAG Peer ip</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.0.0/32</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>MLAG Port Channel ID</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Terminal Length</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Terminal Width</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>none</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>$6$sbSVn6IgN2A7VIJJ$8g/z9ibMbFlO06jbpowU/PyB9kJvIgPNeSVyXjjanW8eftykpP7S32CFEdmb0nj0D8JXOKUNWe97T2wNvWSbm1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin hash 값/미입력시 패스워드 사용하지 않음</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Banner Log</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>***********************************************************************\nGlobalTelecom and Arista Networks\n***********************************************************************\nEOF</t>
-  </si>
-  <si>
-    <t>Time Zone</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Asia/Seoul</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP Route</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>TRUE</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spanning-tree Mode</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>BGP maximum-paths</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>BGP maximum-ecmp</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>65000</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>BGP IPv4 Underlay Peer Group Password</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>BGP IPv4 Underlay Peer Group Name</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>BGP EVPN Overlay Peer Group Name</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>UNDERLAY</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>OVERLAY</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>BGP IPv4 Underlay Prefix</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>100.64.0.0/10</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>BGP IPv4 Underlay Peer Filter</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leaf-Ass</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Peer Filter Name</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Peer Filter Sequence Numbers</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Peer Filter Match</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>as-range 65001-65200 result accept</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>172.31.255.0/24</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1295,11 +1339,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1391,7 +1435,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>21</v>
@@ -1435,7 +1479,7 @@
         <v>31</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>32</v>
@@ -1498,46 +1542,46 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C18" s="13"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C20" s="10"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C21" s="10"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C22" s="10"/>
     </row>
@@ -1547,7 +1591,7 @@
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -1602,10 +1646,10 @@
         <v>56</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -1673,7 +1717,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B37" s="25">
         <v>40</v>
@@ -1681,7 +1725,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B38" s="25">
         <v>200</v>
@@ -1689,34 +1733,50 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="23" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="23" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="23" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B43" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="B44" s="10">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1730,7 +1790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:A5"/>
     </sheetView>
@@ -1747,153 +1807,153 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" t="s">
         <v>140</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>141</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>142</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>143</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="G1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" t="s">
         <v>146</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="J1" t="s">
-        <v>148</v>
-      </c>
       <c r="K1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -1946,7 +2006,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>74</v>
@@ -1957,7 +2017,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>75</v>
@@ -1972,11 +2032,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2000,15 +2060,15 @@
         <v>77</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>206</v>
+      <c r="B3" s="10">
+        <v>65000</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -2036,55 +2096,55 @@
     </row>
     <row r="8" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="B8" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="B9" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>155</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>88</v>
+      <c r="A12" s="18" t="s">
+        <v>212</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>46</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>43</v>
+      <c r="A13" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="B13" s="10">
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>215</v>
@@ -2092,18 +2152,58 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="B15" s="16" t="s">
         <v>217</v>
-      </c>
-      <c r="B15" s="10">
-        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="B16" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="B17" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>219</v>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="B20" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2147,7 +2247,7 @@
         <v>77</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>72</v>
@@ -2156,22 +2256,22 @@
         <v>73</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>95</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>96</v>
       </c>
       <c r="L1" s="14"/>
       <c r="M1" s="14"/>
@@ -2193,26 +2293,26 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9">
         <v>65101</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
@@ -2222,26 +2322,26 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9">
         <v>65102</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
@@ -2251,26 +2351,26 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9">
         <v>65103</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J4" s="9"/>
     </row>
@@ -2279,26 +2379,26 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9">
         <v>65104</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J5" s="9"/>
     </row>
@@ -2307,28 +2407,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G6" s="9">
         <v>65105</v>
       </c>
       <c r="H6" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="I6" s="10" t="s">
         <v>172</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>174</v>
       </c>
       <c r="J6" s="17"/>
       <c r="K6" s="17"/>
@@ -2338,28 +2438,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G7" s="9">
         <v>65105</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -2373,9 +2473,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -2386,7 +2486,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>1</v>
@@ -2397,20 +2497,20 @@
         <v>77</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B4" s="26">
         <v>0</v>
@@ -2418,7 +2518,7 @@
     </row>
     <row r="5" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>37</v>
@@ -2426,31 +2526,31 @@
     </row>
     <row r="6" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>107</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B9" s="26">
         <v>1000</v>
@@ -2458,26 +2558,26 @@
     </row>
     <row r="10" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>43</v>
@@ -2485,23 +2585,23 @@
     </row>
     <row r="13" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B15" s="9">
         <v>16384</v>
@@ -2519,13 +2619,11 @@
       <c r="A17" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>84</v>
-      </c>
+      <c r="B17" s="9"/>
     </row>
     <row r="18" spans="1:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>12</v>
@@ -2533,19 +2631,15 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B19" s="18">
-        <v>300</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="B19" s="18"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B20" s="18" t="b">
-        <v>1</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="B20" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -2588,7 +2682,7 @@
         <v>77</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>72</v>
@@ -2597,22 +2691,22 @@
         <v>73</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I1" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J1" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1" s="14" t="s">
         <v>95</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2639,7 +2733,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>1</v>
@@ -2650,47 +2744,47 @@
         <v>77</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>107</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" t="s">
         <v>121</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="C5" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B7" s="20" t="s">
         <v>46</v>
@@ -2698,7 +2792,7 @@
     </row>
     <row r="8" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>43</v>
@@ -2706,23 +2800,23 @@
     </row>
     <row r="9" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>115</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B11" s="16">
         <v>16384</v>
@@ -2765,43 +2859,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="D1" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="E1" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="F1" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="G1" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="H1" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="I1" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="J1" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="K1" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="L1" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" s="18" t="s">
         <v>134</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="M1" s="18" t="s">
-        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2831,13 +2925,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>137</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>
